--- a/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>30,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,42</t>
+          <t>4,04; 9,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 26,82</t>
+          <t>8,13; 15,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,5</t>
+          <t>2,59; 6,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,34</t>
+          <t>12,41; 28,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,66</t>
+          <t>7,84; 12,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,07; 47,12</t>
+          <t>17,13; 23,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 22,03</t>
+          <t>7,94; 12,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,9</t>
+          <t>31,35; 48,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,14</t>
+          <t>6,9; 10,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,52; 36,81</t>
+          <t>14,55; 19,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,67; 17,88</t>
+          <t>5,84; 9,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,8</t>
+          <t>24,51; 37,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>5,48%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,06%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>22,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,22</t>
+          <t>3,35; 5,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,66; 20,44</t>
+          <t>2,52; 6,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,46</t>
+          <t>3,26; 5,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,37</t>
+          <t>14,83; 20,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,22</t>
+          <t>6,02; 8,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,75; 31,28</t>
+          <t>6,02; 12,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 12,01</t>
+          <t>5,67; 8,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 7,53</t>
+          <t>25,05; 31,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,3</t>
+          <t>5,0; 6,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 24,88</t>
+          <t>5,04; 8,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 8,9</t>
+          <t>4,62; 6,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 5,61</t>
+          <t>20,57; 25,04</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>11,03%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>23,37%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,08%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>17,91%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,42</t>
+          <t>1,6; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,95</t>
+          <t>3,8; 8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,34</t>
+          <t>1,06; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,4</t>
+          <t>8,49; 14,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,16</t>
+          <t>3,73; 6,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,94</t>
+          <t>4,64; 9,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,56</t>
+          <t>2,08; 4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,47</t>
+          <t>20,14; 27,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,77</t>
+          <t>3,02; 4,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 20,1</t>
+          <t>4,8; 8,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,79</t>
+          <t>1,83; 3,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,8</t>
+          <t>15,75; 20,18</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,49</t>
+          <t>3,35; 4,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 17,52</t>
+          <t>3,75; 6,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,1</t>
+          <t>2,9; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,04</t>
+          <t>13,54; 17,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 7,94</t>
+          <t>6,19; 7,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,63; 30,49</t>
+          <t>7,98; 12,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 13,04</t>
+          <t>5,65; 7,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,24</t>
+          <t>25,91; 30,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 5,79</t>
+          <t>5,05; 6,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 23,92</t>
+          <t>6,43; 9,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 9,98</t>
+          <t>4,42; 5,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 5,53</t>
+          <t>20,52; 23,73</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Enfermedad mental común</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5382</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25587</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8855</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12656</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>79418</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>47423</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18039</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>105006</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36510</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3547; 8073</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18556; 35990</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5586; 13704</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12226; 27974</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10003; 15809</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>67876; 93213</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21736; 34990</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37600; 58121</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14874; 22534</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>90836; 119914</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28592; 45288</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53548; 80874</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18581</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35633</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>62047</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30636</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>136370</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59266</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99939</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49217</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>198931</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94898</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>161986</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15159; 22883</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35521; 85177</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28137; 45607</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>52909; 72531</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>25973; 35422</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83429; 175525</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49309; 71694</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>88736; 111891</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44194; 55305</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>140895; 245184</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>80083; 108420</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>146227; 178011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26499</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7311</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24785</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29334</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66162</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13309</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55833</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20526</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90947</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2415; 5924</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17462; 39188</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3997; 12748</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19079; 31985</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7263; 12356</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20590; 41663</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8608; 19254</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57027; 77208</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10448; 16461</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43325; 74035</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14537; 28768</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>79949; 102472</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27769</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>114648</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51799</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>105479</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52797</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>245123</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>100136</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>213524</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80565</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>359771</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>151935</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>319002</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23116; 32198</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78514; 142080</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42281; 63447</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>92044; 120695</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46701; 59429</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>177494; 284647</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>87990; 117216</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>196184; 234146</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>72918; 88517</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>277880; 409434</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>133373; 168168</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>294981; 341046</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común</t>
+          <t>Enfermedad mental común (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común</t>
+          <t>Enfermedad mental común (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,19</t>
+          <t>3,9; 8,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 15,76</t>
+          <t>7,67; 15,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 28,38</t>
+          <t>12,22; 28,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,39</t>
+          <t>8,67; 13,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,13; 23,53</t>
+          <t>16,68; 23,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,35; 48,45</t>
+          <t>32,08; 48,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 10,46</t>
+          <t>7,01; 10,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,2</t>
+          <t>14,4; 19,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,51; 37,01</t>
+          <t>24,27; 36,4</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,06</t>
+          <t>3,09; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,05</t>
+          <t>2,55; 5,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,83; 20,32</t>
+          <t>14,89; 20,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 8,21</t>
+          <t>5,75; 7,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,67</t>
+          <t>5,94; 12,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 31,59</t>
+          <t>25,08; 31,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,26</t>
+          <t>4,64; 5,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,78</t>
+          <t>4,8; 8,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,04</t>
+          <t>20,59; 24,97</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,92</t>
+          <t>1,73; 4,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,54</t>
+          <t>3,76; 8,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,24</t>
+          <t>8,55; 14,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,35</t>
+          <t>3,45; 5,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,4</t>
+          <t>4,64; 9,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 27,27</t>
+          <t>20,07; 27,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,76</t>
+          <t>3,03; 4,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,2</t>
+          <t>4,86; 7,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 20,18</t>
+          <t>15,77; 20,55</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,66</t>
+          <t>3,15; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,78</t>
+          <t>3,7; 6,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 17,75</t>
+          <t>13,69; 17,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,88</t>
+          <t>6,05; 7,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,8</t>
+          <t>8,09; 12,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,91; 30,92</t>
+          <t>25,69; 30,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,13</t>
+          <t>4,86; 5,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 9,48</t>
+          <t>6,65; 9,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 23,73</t>
+          <t>20,49; 23,78</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5382</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12656</t>
+          <t>13075</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18039</t>
+          <t>17793</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3547; 8073</t>
+          <t>3207; 6649</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18556; 35990</t>
+          <t>17504; 35612</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12226; 27974</t>
+          <t>12040; 27651</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10003; 15809</t>
+          <t>10519; 16252</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67876; 93213</t>
+          <t>66068; 92591</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37600; 58121</t>
+          <t>38480; 57742</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14874; 22534</t>
+          <t>14265; 21063</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>90836; 119914</t>
+          <t>89921; 120000</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>53548; 80874</t>
+          <t>53024; 79541</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18581</t>
+          <t>17524</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30636</t>
+          <t>29983</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>49217</t>
+          <t>47506</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15159; 22883</t>
+          <t>14254; 21652</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35521; 85177</t>
+          <t>35910; 84317</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52909; 72531</t>
+          <t>53125; 73221</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25973; 35422</t>
+          <t>25590; 34804</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83429; 175525</t>
+          <t>82217; 170857</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88736; 111891</t>
+          <t>88836; 113269</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44194; 55305</t>
+          <t>42032; 54037</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>140895; 245184</t>
+          <t>134139; 244952</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>146227; 178011</t>
+          <t>146419; 177574</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3805</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>10548</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13309</t>
+          <t>15248</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2415; 5924</t>
+          <t>3038; 7096</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17462; 39188</t>
+          <t>17263; 37769</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19079; 31985</t>
+          <t>19208; 31885</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7263; 12356</t>
+          <t>7890; 13387</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20590; 41663</t>
+          <t>20593; 41436</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>57027; 77208</t>
+          <t>56821; 76722</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10448; 16461</t>
+          <t>12240; 18784</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>43325; 74035</t>
+          <t>43882; 71903</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>79949; 102472</t>
+          <t>80085; 104322</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27769</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52797</t>
+          <t>53605</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>80565</t>
+          <t>80548</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23116; 32198</t>
+          <t>22639; 31760</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78514; 142080</t>
+          <t>77653; 142348</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92044; 120695</t>
+          <t>93121; 120254</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46701; 59429</t>
+          <t>48087; 60305</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>177494; 284647</t>
+          <t>179923; 283943</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>196184; 234146</t>
+          <t>194522; 230934</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72918; 88517</t>
+          <t>73543; 88790</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>277880; 409434</t>
+          <t>287107; 413801</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>294981; 341046</t>
+          <t>294496; 341852</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,74%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,92%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>20,56%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>10,77%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>20,05%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,1%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>39,53%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>8,74%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,81%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,46%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,37; 14,61</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 28,06</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 6,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>3,9; 8,09</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 15,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 6,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>12,22; 28,06</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>17,23; 23,91</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32,08; 48,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 12,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>8,67; 13,39</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16,68; 23,37</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 12,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>32,08; 48,14</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>14,48; 19,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 36,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 9,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>7,01; 10,35</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>14,4; 19,22</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 9,25</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>24,27; 36,4</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,8%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,39%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>6,74%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,22%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>5,24%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>22,78%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,26; 7,03</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 20,52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 5,29</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>3,09; 4,7</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 5,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 5,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>14,89; 20,52</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>10,26; 13,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25,08; 31,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 8,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>5,75; 7,82</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 12,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 8,24</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>25,08; 31,98</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,64; 9,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20,59; 24,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 6,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>4,64; 5,97</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 8,77</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 6,26</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>20,59; 24,97</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,68%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>4,62%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,37%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>3,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,76; 8,31</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 14,2</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 3,37</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>1,73; 4,05</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 8,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 3,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 14,2</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>4,89; 9,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20,07; 27,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 4,64</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>3,45; 5,86</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 9,35</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 4,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>20,07; 27,1</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>4,92; 8,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 20,55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 3,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>3,03; 4,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,86; 7,97</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 3,63</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>15,77; 20,55</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,75%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,51%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>12,41%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>6,74%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,2%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5,32%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,18; 7,38</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 17,68</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 4,36</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>3,15; 4,42</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 6,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 4,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>13,69; 17,68</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>11,05; 13,62</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 30,5</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 7,52</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>6,05; 7,59</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 12,76</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 7,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>25,69; 30,5</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>8,64; 10,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20,49; 23,78</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 5,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>4,86; 5,87</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 9,58</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 5,58</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>20,49; 23,78</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>111</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>27019</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8855</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>4718</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>25587</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8855</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>18647</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>89202</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47423</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>13075</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>79418</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>27655</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>47423</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>116222</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36510</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>17793</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>105006</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>36510</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>66070</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>18824; 37320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12040; 27651</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5586; 13704</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3207; 6649</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17504; 35612</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5586; 13704</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12040; 27651</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>74756; 103702</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38480; 57742</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21736; 34990</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>10519; 16252</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>66068; 92591</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21736; 34990</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>38480; 57742</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>99828; 133238</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53024; 79541</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28592; 45288</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>14265; 21063</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>89921; 120000</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>28592; 45288</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>53024; 79541</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>278</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>365</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>70455</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62047</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35633</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>17524</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>62562</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>35633</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>62047</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>150561</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99939</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59266</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>29983</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>136370</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>59266</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>99939</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>221016</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>161986</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94898</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>47506</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>198931</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>94898</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>161986</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>54860; 90406</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53125; 73221</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28137; 45607</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>14254; 21652</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>35910; 84317</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>28137; 45607</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>53125; 73221</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>130313; 170849</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>88836; 113269</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49309; 71694</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>25590; 34804</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>82217; 170857</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>49309; 71694</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>88836; 113269</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>195391; 251947</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>146419; 177574</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>80083; 108420</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>42032; 54037</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>134139; 244952</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>80083; 108420</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>146419; 177574</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>83</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>255</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>29885</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24785</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7311</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>4700</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>26499</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7311</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>24785</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>33284</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66162</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>10548</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>29334</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>13215</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>66162</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>63169</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>90947</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20526</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>15248</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>55833</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>20526</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>90947</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>19130; 42310</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19208; 31885</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3997; 12748</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3038; 7096</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>17263; 37769</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3997; 12748</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>19208; 31885</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>24268; 45400</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56821; 76722</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8608; 19254</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>7890; 13387</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20593; 41436</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8608; 19254</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>56821; 76722</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>49391; 80648</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80085; 104322</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14537; 28768</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>12240; 18784</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>43882; 71903</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>14537; 28768</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>80085; 104322</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>318</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>472</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>515</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>127359</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>105479</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51799</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>26942</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>114648</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>51799</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>105479</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>273048</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>213524</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>100136</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>53605</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>245123</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>100136</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>213524</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>400407</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>319002</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>151935</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>80548</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>359771</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>151935</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>319002</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>106352; 151429</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>93121; 120254</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42281; 63447</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>22639; 31760</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>77653; 142348</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>42281; 63447</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>93121; 120254</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>243087; 299514</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>194522; 230934</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>87990; 117216</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>48087; 60305</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>179923; 283943</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>87990; 117216</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>194522; 230934</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>367384; 439775</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>294496; 341852</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>133373; 168168</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>73543; 88790</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>287107; 413801</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>133373; 168168</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>294496; 341852</t>
         </is>
       </c>
     </row>
